--- a/biology/Zoologie/Dipterus/Dipterus.xlsx
+++ b/biology/Zoologie/Dipterus/Dipterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipterus (« deux ailes ») est un genre éteint de poissons pulmonés qui vivait au Dévonien supérieur en Europe et en Amérique du Nord.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dipterus a été créé en 1828 par les géologues et paléontologues britanniques Adam Sedgwick (1785-1873) et Roderick Murchison (1792-1871), avec comme espèce type Dipterus valenciennesi[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dipterus a été créé en 1828 par les géologues et paléontologues britanniques Adam Sedgwick (1785-1873) et Roderick Murchison (1792-1871), avec comme espèce type Dipterus valenciennesi.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Concernant Dipterus valenciennesi, il s'agit d'un poisson d'une taille moyenne d'environ 35 centimètres, ressemblant beaucoup aux dipneustes modernes. Comme son ancêtre Dipnorhynchus, il possédait des plaques dentaires sur son palais (plaques palatales) au lieu de véritables dents. Cependant, contrairement à ses parents modernes, pour lesquels les nageoires dorsale, caudale et anale sont fusionnées, les nageoires de Dipterus étaient séparées[3]. Ce poisson sans vessie natatoire respirait par des poumons, encore présents, bien que moins développés, chez les poissons pulmonés actuels. Il devait se nourrir principalement d’invertébrés.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Concernant Dipterus valenciennesi, il s'agit d'un poisson d'une taille moyenne d'environ 35 centimètres, ressemblant beaucoup aux dipneustes modernes. Comme son ancêtre Dipnorhynchus, il possédait des plaques dentaires sur son palais (plaques palatales) au lieu de véritables dents. Cependant, contrairement à ses parents modernes, pour lesquels les nageoires dorsale, caudale et anale sont fusionnées, les nageoires de Dipterus étaient séparées. Ce poisson sans vessie natatoire respirait par des poumons, encore présents, bien que moins développés, chez les poissons pulmonés actuels. Il devait se nourrir principalement d’invertébrés.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (23 juillet 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (23 juillet 2021) :
 † Dipterus calvini Eastman, 1900
 † Dipterus contraversus Hay, 1899
 † Dipterus costatus Eastman, 1900
